--- a/Temp_Database/Schema.xlsx
+++ b/Temp_Database/Schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\Project\MyWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant\Desktop\Project\Temp_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{7D0F5207-0B4C-4E87-9FF0-C35F1B5FEC9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B55DE940-4820-465D-A2D6-1379DDE08DC9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769EE18D-414A-4C1B-823B-46E256B66BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C314A383-4043-45D0-B6BB-2962B90817C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C314A383-4043-45D0-B6BB-2962B90817C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
   <si>
     <t>FIELD</t>
   </si>
@@ -226,15 +226,6 @@
   </si>
   <si>
     <t>Booking_Service_Info_Id</t>
-  </si>
-  <si>
-    <t>pooja</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>prashant</t>
   </si>
 </sst>
 </file>
@@ -403,6 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,7 +404,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,63 +726,63 @@
   <dimension ref="A1:BB43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="B36" sqref="B36:G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:54" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:54" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:54" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:54" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:54" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:54" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -871,7 +862,7 @@
       <c r="BA4"/>
       <c r="BB4"/>
     </row>
-    <row r="5" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
@@ -909,7 +900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -935,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -961,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -987,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -1013,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1039,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>57</v>
       </c>
@@ -1091,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>43</v>
       </c>
@@ -1117,7 +1108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -1143,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>45</v>
       </c>
@@ -1169,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1180,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1194,25 +1185,25 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="20" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="I20" s="13" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="2:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="11" t="s">
         <v>11</v>
       </c>
@@ -1288,7 +1279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1313,7 @@
       </c>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1343,7 @@
       </c>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -1378,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>55</v>
       </c>
@@ -1404,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1453,31 +1444,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" s="16" t="s">
+      <c r="J29" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I30" t="s">
         <v>16</v>
       </c>
@@ -1491,16 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31">
-        <v>1001</v>
-      </c>
+    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I31" t="s">
         <v>28</v>
       </c>
@@ -1514,16 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
-        <v>1002</v>
-      </c>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I32" t="s">
         <v>64</v>
       </c>
@@ -1537,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I33" t="s">
         <v>62</v>
       </c>
@@ -1551,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -1559,25 +1532,25 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
     </row>
-    <row r="36" spans="2:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="I36" s="14" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="I36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="2:14" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1615,23 +1588,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="16" t="s">
+      <c r="C38" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="16" t="s">
+      <c r="F38" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="13" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="10" t="s">
@@ -1653,7 +1626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>58</v>
       </c>
@@ -1687,7 +1660,7 @@
       </c>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>52</v>
       </c>
@@ -1717,7 +1690,7 @@
       </c>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>65</v>
       </c>
@@ -1731,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1739,7 +1712,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
